--- a/Lab01/Lab01.xlsx
+++ b/Lab01/Lab01.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20394"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20395"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C626D87B-4FEF-4669-BED9-4AD628EF137C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F28EB92-9D79-4307-849D-3C563C192617}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -931,6 +931,7 @@
         <c:axId val="469687055"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="20"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -2667,8 +2668,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="N21" sqref="N21"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
